--- a/data/trans_orig/P39B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39B-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>51785</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39364</v>
+        <v>39772</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67227</v>
+        <v>67116</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0632721330655928</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04809547751112431</v>
+        <v>0.04859437267579979</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08213966598879083</v>
+        <v>0.08200357987433597</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>43</v>
@@ -764,19 +764,19 @@
         <v>47757</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35744</v>
+        <v>35633</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64019</v>
+        <v>63357</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03974267962195239</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02974567780965573</v>
+        <v>0.02965304959825844</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05327475889028994</v>
+        <v>0.05272398470403285</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>91</v>
@@ -785,19 +785,19 @@
         <v>99543</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>79893</v>
+        <v>81045</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>120550</v>
+        <v>120109</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04927563367131511</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03954887325302685</v>
+        <v>0.04011890303375568</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05967483817077505</v>
+        <v>0.05945634618232864</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>136913</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>117138</v>
+        <v>116207</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>159807</v>
+        <v>159462</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1672836232843643</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1431221401234637</v>
+        <v>0.1419844485436922</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1952561158396723</v>
+        <v>0.1948343859709258</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>134</v>
@@ -835,19 +835,19 @@
         <v>143199</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>121456</v>
+        <v>123323</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>166312</v>
+        <v>169721</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1191668306148689</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1010733119485578</v>
+        <v>0.1026267897868237</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.13840069974426</v>
+        <v>0.141237750723866</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>267</v>
@@ -856,19 +856,19 @@
         <v>280112</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>250493</v>
+        <v>248572</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>313498</v>
+        <v>310586</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1386613409578191</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1239993863694406</v>
+        <v>0.1230480953154192</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1551880025197581</v>
+        <v>0.1537463122122116</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>234632</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>211892</v>
+        <v>209576</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>263877</v>
+        <v>260774</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.286678321871312</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2588939101560994</v>
+        <v>0.2560642019760636</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3224107976858825</v>
+        <v>0.3186188813767807</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>323</v>
@@ -906,19 +906,19 @@
         <v>343816</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>315036</v>
+        <v>310368</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>375571</v>
+        <v>374200</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2861158426570419</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2621661061020737</v>
+        <v>0.25828106008841</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3125412733476621</v>
+        <v>0.3114007849085659</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>546</v>
@@ -927,19 +927,19 @@
         <v>578448</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>535445</v>
+        <v>537143</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>621857</v>
+        <v>619194</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2863437310147636</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.265056488925658</v>
+        <v>0.2658968538472405</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3078324073449319</v>
+        <v>0.3065139710790979</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>123228</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>101180</v>
+        <v>104424</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>143512</v>
+        <v>147691</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1505624036674307</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1236235349634912</v>
+        <v>0.1275876190658705</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1753466573723146</v>
+        <v>0.1804523146723613</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>208</v>
@@ -977,19 +977,19 @@
         <v>220863</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>194711</v>
+        <v>193111</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>248957</v>
+        <v>245715</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1837974592009797</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1620337678333736</v>
+        <v>0.1607029508139322</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2071762238352673</v>
+        <v>0.2044785814461341</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>320</v>
@@ -998,19 +998,19 @@
         <v>344091</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>310819</v>
+        <v>312559</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>378795</v>
+        <v>380396</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1703322821203377</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1538616968455197</v>
+        <v>0.1547230406562203</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1875112182745255</v>
+        <v>0.1883040451789708</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>271892</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>247562</v>
+        <v>246156</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>301267</v>
+        <v>300405</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3322035181113001</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3024764203342724</v>
+        <v>0.3007590699101193</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3680940830142232</v>
+        <v>0.3670419079212665</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>417</v>
@@ -1048,19 +1048,19 @@
         <v>446031</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>410998</v>
+        <v>411923</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>477884</v>
+        <v>479696</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3711771879051571</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3420235154110101</v>
+        <v>0.3427926905273552</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.397684108068288</v>
+        <v>0.3991920645371289</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>668</v>
@@ -1069,19 +1069,19 @@
         <v>717923</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>673828</v>
+        <v>675390</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>760218</v>
+        <v>763320</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3553870122357646</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3335588515229431</v>
+        <v>0.3343319846988242</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3763237469055315</v>
+        <v>0.3778591084680764</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>151234</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>127744</v>
+        <v>128917</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>176458</v>
+        <v>175413</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.102748792808343</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0867892868498682</v>
+        <v>0.08758659735129232</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1198856955533518</v>
+        <v>0.1191760292748902</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>109</v>
@@ -1194,19 +1194,19 @@
         <v>116787</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>96971</v>
+        <v>97593</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>140977</v>
+        <v>141668</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08109981476935149</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06733887330863833</v>
+        <v>0.06777084537050351</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09789804671342384</v>
+        <v>0.09837795047148189</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>255</v>
@@ -1215,19 +1215,19 @@
         <v>268022</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>238941</v>
+        <v>236435</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>304450</v>
+        <v>302106</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09204266223492107</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08205597198974096</v>
+        <v>0.08119550957875471</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1045526074767853</v>
+        <v>0.1037478490142507</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>402230</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>368365</v>
+        <v>367953</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>442668</v>
+        <v>437284</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2732757677186447</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2502681054900944</v>
+        <v>0.2499876220958523</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3007496286544937</v>
+        <v>0.2970912366206157</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>326</v>
@@ -1265,19 +1265,19 @@
         <v>353257</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>318496</v>
+        <v>319927</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>386551</v>
+        <v>386084</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2453097105762405</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2211712409333918</v>
+        <v>0.2221651790754554</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2684303295868957</v>
+        <v>0.2681059219700804</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>705</v>
@@ -1286,19 +1286,19 @@
         <v>755487</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>710183</v>
+        <v>708008</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>803735</v>
+        <v>807349</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2594456340813385</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2438877582562688</v>
+        <v>0.2431408218262641</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2760148231809774</v>
+        <v>0.2772559509630996</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>485386</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>443471</v>
+        <v>449456</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>521803</v>
+        <v>523455</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3297722264404619</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3012947271947762</v>
+        <v>0.3053610655916642</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3545142406189701</v>
+        <v>0.3556360069026543</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>390</v>
@@ -1336,19 +1336,19 @@
         <v>420258</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>381713</v>
+        <v>384165</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>454514</v>
+        <v>456873</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2918370417925046</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2650706161145451</v>
+        <v>0.2667730762797754</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3156252658113523</v>
+        <v>0.3172635750517077</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>847</v>
@@ -1357,19 +1357,19 @@
         <v>905644</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>851727</v>
+        <v>851625</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>954736</v>
+        <v>960101</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3110120318743991</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2924961542845402</v>
+        <v>0.2924610720191569</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.327870971792494</v>
+        <v>0.3297131960002433</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>165303</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>139883</v>
+        <v>140826</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>193293</v>
+        <v>194064</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1123072700099289</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09503699380800505</v>
+        <v>0.09567727441924527</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1313237024610561</v>
+        <v>0.13184773491929</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>167</v>
@@ -1407,19 +1407,19 @@
         <v>179062</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>154394</v>
+        <v>156241</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>207189</v>
+        <v>207229</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1243447941553114</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1072148011633632</v>
+        <v>0.1084977790288042</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1438771974788604</v>
+        <v>0.1439047459947826</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>315</v>
@@ -1428,19 +1428,19 @@
         <v>344365</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>307127</v>
+        <v>309477</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>381926</v>
+        <v>382489</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1182602210013831</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1054721108545503</v>
+        <v>0.1062790337240156</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.131159294554259</v>
+        <v>0.1313526200272965</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>267730</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>239966</v>
+        <v>238833</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>302375</v>
+        <v>297004</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1818959430226215</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1630332325457086</v>
+        <v>0.1622638434082839</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2054344204090519</v>
+        <v>0.2017853469464516</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>336</v>
@@ -1478,19 +1478,19 @@
         <v>370680</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>337847</v>
+        <v>335989</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>405307</v>
+        <v>402987</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.257408638706592</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2346088543832146</v>
+        <v>0.2333186743372537</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.281455018455024</v>
+        <v>0.2798439273302675</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>582</v>
@@ -1499,19 +1499,19 @@
         <v>638409</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>592466</v>
+        <v>586768</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>692164</v>
+        <v>688010</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2192394508079582</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2034619451002303</v>
+        <v>0.2015050547900477</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2376996344827126</v>
+        <v>0.2362730629031657</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>55334</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>42295</v>
+        <v>41451</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>72740</v>
+        <v>73421</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1370147882913486</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.104728948470345</v>
+        <v>0.1026396110426425</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.180114341317963</v>
+        <v>0.1818023278270819</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -1624,19 +1624,19 @@
         <v>33788</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22894</v>
+        <v>23925</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>46200</v>
+        <v>47411</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08640453365993622</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05854553812587161</v>
+        <v>0.06118181042200353</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1181474394211709</v>
+        <v>0.1212417980011253</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>81</v>
@@ -1645,19 +1645,19 @@
         <v>89122</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>72201</v>
+        <v>69633</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>110331</v>
+        <v>107918</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1121175053256966</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09083039671464925</v>
+        <v>0.08760084000772088</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1387995340387388</v>
+        <v>0.1357634051987489</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>105388</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>89187</v>
+        <v>88874</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>126203</v>
+        <v>125981</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.260956434304874</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2208394461401773</v>
+        <v>0.220065905085951</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3124984489381732</v>
+        <v>0.311947995691807</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>91</v>
@@ -1695,19 +1695,19 @@
         <v>97034</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>80402</v>
+        <v>79115</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>116395</v>
+        <v>116495</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2481430928591335</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2056106290412874</v>
+        <v>0.2023189597737216</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2976540021955025</v>
+        <v>0.2979092190399529</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>189</v>
@@ -1716,19 +1716,19 @@
         <v>202422</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>175400</v>
+        <v>178121</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>228218</v>
+        <v>228956</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2546530203024455</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2206581411725864</v>
+        <v>0.2240811952792895</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2871044369492629</v>
+        <v>0.2880336281722219</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>137190</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>117278</v>
+        <v>116593</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>157933</v>
+        <v>159048</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3397033583857706</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2903968875122274</v>
+        <v>0.288701188926303</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3910656722348871</v>
+        <v>0.3938276280683492</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>134</v>
@@ -1766,19 +1766,19 @@
         <v>155794</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>133652</v>
+        <v>134219</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>175220</v>
+        <v>175819</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3984082868155771</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3417857410509602</v>
+        <v>0.3432339100145038</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4480856979928399</v>
+        <v>0.4496189553104008</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>253</v>
@@ -1787,19 +1787,19 @@
         <v>292984</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>265022</v>
+        <v>265564</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>322481</v>
+        <v>321991</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3685827470638128</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.333405113462333</v>
+        <v>0.334086777213602</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4056900033160223</v>
+        <v>0.4050744773159305</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>49478</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>35156</v>
+        <v>35524</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>64305</v>
+        <v>64058</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1225148483752626</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08705251266256239</v>
+        <v>0.08796217961667967</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1592286532606326</v>
+        <v>0.1586175578222919</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -1837,19 +1837,19 @@
         <v>36914</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26515</v>
+        <v>26578</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>53018</v>
+        <v>51411</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09439930365927003</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0678063071280109</v>
+        <v>0.06796758284589219</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1355812110608263</v>
+        <v>0.131472458641667</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>76</v>
@@ -1858,19 +1858,19 @@
         <v>86392</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>69133</v>
+        <v>68558</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>106523</v>
+        <v>105947</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1086836460304904</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08697158281475977</v>
+        <v>0.08624822459008143</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1340094408834181</v>
+        <v>0.1332849438207005</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>56463</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>42847</v>
+        <v>43941</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>71379</v>
+        <v>73504</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1398105706427441</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1060959831531877</v>
+        <v>0.108804126270907</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1767448530107257</v>
+        <v>0.1820069002951458</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>63</v>
@@ -1908,19 +1908,19 @@
         <v>67511</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>52845</v>
+        <v>53552</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>84509</v>
+        <v>83722</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1726447830060832</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1351398592437815</v>
+        <v>0.1369468305144969</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2161119354129063</v>
+        <v>0.214100208860646</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>116</v>
@@ -1929,19 +1929,19 @@
         <v>123974</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>103628</v>
+        <v>104063</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>144124</v>
+        <v>145718</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1559630812775547</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.130367283212619</v>
+        <v>0.1309148843456754</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1813121507457029</v>
+        <v>0.1833177628373054</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>258353</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>229580</v>
+        <v>228238</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>287356</v>
+        <v>291521</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09589281974492032</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08521313695440369</v>
+        <v>0.08471492695879587</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1066577759542584</v>
+        <v>0.1082037764765087</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>183</v>
@@ -2054,19 +2054,19 @@
         <v>198332</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>173238</v>
+        <v>171193</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>228063</v>
+        <v>225788</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06539686594556329</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0571223483244982</v>
+        <v>0.05644821283689831</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07519994086618005</v>
+        <v>0.07444988901301941</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>427</v>
@@ -2075,19 +2075,19 @@
         <v>456686</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>415175</v>
+        <v>415137</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>500266</v>
+        <v>500000</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07974341153615129</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07249513758388196</v>
+        <v>0.07248854911930178</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08735313004130933</v>
+        <v>0.08730669598785507</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>644531</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>600132</v>
+        <v>593707</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>693295</v>
+        <v>688022</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.239230426776732</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2227509007356675</v>
+        <v>0.2203659986901629</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2573299394290802</v>
+        <v>0.2553729093250912</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>551</v>
@@ -2125,19 +2125,19 @@
         <v>593490</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>549604</v>
+        <v>552442</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>635633</v>
+        <v>641016</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1956934563340423</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1812229436850273</v>
+        <v>0.1821587313985436</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2095894541960219</v>
+        <v>0.2113643919844447</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1161</v>
@@ -2146,19 +2146,19 @@
         <v>1238021</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1173628</v>
+        <v>1177237</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1299871</v>
+        <v>1305626</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2161750302320621</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2049311576296944</v>
+        <v>0.2055612993321247</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2269748270189537</v>
+        <v>0.2279797480530626</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>857208</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>806393</v>
+        <v>807914</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>913430</v>
+        <v>908739</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3181696499797809</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2993087315724944</v>
+        <v>0.2998732140085388</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3390373153296784</v>
+        <v>0.3372964817086978</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>847</v>
@@ -2196,19 +2196,19 @@
         <v>919868</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>868732</v>
+        <v>869357</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>971682</v>
+        <v>970185</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3033113660390213</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2864501898844686</v>
+        <v>0.2866561119092358</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3203960796915995</v>
+        <v>0.3199025222903827</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1646</v>
@@ -2217,19 +2217,19 @@
         <v>1777076</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1708469</v>
+        <v>1707494</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1854410</v>
+        <v>1854895</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3103013113070556</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2983215717083896</v>
+        <v>0.2981513436119194</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3238048120871767</v>
+        <v>0.3238894655259166</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>338009</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>299731</v>
+        <v>301267</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>374570</v>
+        <v>374883</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1254586548006359</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.111251119652322</v>
+        <v>0.1118213124867685</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1390288746633112</v>
+        <v>0.1391450279684398</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>408</v>
@@ -2267,19 +2267,19 @@
         <v>436839</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>399324</v>
+        <v>397815</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>478773</v>
+        <v>479957</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1440405672992739</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1316703734426259</v>
+        <v>0.1311727778243797</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1578676223055595</v>
+        <v>0.1582578344703958</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>711</v>
@@ -2288,19 +2288,19 @@
         <v>774848</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>716837</v>
+        <v>723668</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>830340</v>
+        <v>824214</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1352988746610969</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1251692692618725</v>
+        <v>0.12636211342309</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1449884924468383</v>
+        <v>0.1439188461190203</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>596084</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>555736</v>
+        <v>553945</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>644540</v>
+        <v>643037</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2212484486979309</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2062722615148284</v>
+        <v>0.20560739906457</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.23923350052096</v>
+        <v>0.2386758042747452</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>816</v>
@@ -2338,19 +2338,19 @@
         <v>884222</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>834026</v>
+        <v>828956</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>937338</v>
+        <v>936939</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2915577443820992</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2750063618917588</v>
+        <v>0.2733346583982528</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3090718782453721</v>
+        <v>0.3089403505849419</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1366</v>
@@ -2359,19 +2359,19 @@
         <v>1480307</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1414871</v>
+        <v>1409687</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1546338</v>
+        <v>1545968</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2584813722636341</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2470553602336694</v>
+        <v>0.2461502283131438</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2700113748781776</v>
+        <v>0.2699466135644927</v>
       </c>
     </row>
     <row r="27">
@@ -2702,19 +2702,19 @@
         <v>65870</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>51454</v>
+        <v>51713</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81360</v>
+        <v>83251</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1015789263458909</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07934861104783991</v>
+        <v>0.07974822458140043</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1254675783378212</v>
+        <v>0.1283836012259273</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -2723,19 +2723,19 @@
         <v>44272</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32666</v>
+        <v>32166</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58239</v>
+        <v>59892</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04859294792390177</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03585368311994307</v>
+        <v>0.03530497735939549</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06392293127823068</v>
+        <v>0.06573774489785379</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>105</v>
@@ -2744,19 +2744,19 @@
         <v>110142</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>92313</v>
+        <v>90672</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>134098</v>
+        <v>133725</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07062453868920568</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05919230309630336</v>
+        <v>0.05814019347136628</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08598550400486918</v>
+        <v>0.08574668683130772</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>126169</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>105958</v>
+        <v>107417</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>146554</v>
+        <v>146370</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1945676449664328</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1633996610004774</v>
+        <v>0.1656495980869559</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2260041585370756</v>
+        <v>0.2257200352155071</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>154</v>
@@ -2794,19 +2794,19 @@
         <v>173508</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>147976</v>
+        <v>149540</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>200576</v>
+        <v>199209</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1904415177422275</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1624175145127947</v>
+        <v>0.1641340258410183</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2201513968472504</v>
+        <v>0.2186514981189183</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>278</v>
@@ -2815,19 +2815,19 @@
         <v>299676</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>266939</v>
+        <v>269741</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>334360</v>
+        <v>333733</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1921571630724937</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1711652719955023</v>
+        <v>0.1729619659620819</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2143968768458409</v>
+        <v>0.2139946489205065</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>197544</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>175192</v>
+        <v>177783</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>219855</v>
+        <v>220233</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3046373481817067</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2701675511243803</v>
+        <v>0.2741630819453828</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3390437361569642</v>
+        <v>0.3396259156607471</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>253</v>
@@ -2865,19 +2865,19 @@
         <v>281425</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>253052</v>
+        <v>252047</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>310547</v>
+        <v>313001</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3088911840333048</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2777490232157791</v>
+        <v>0.2766455849590008</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3408553357258001</v>
+        <v>0.3435484884086969</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>457</v>
@@ -2886,19 +2886,19 @@
         <v>478969</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>443617</v>
+        <v>443187</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>518167</v>
+        <v>514355</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3071224374053046</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2844538564696756</v>
+        <v>0.2841781979932043</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3322568759692146</v>
+        <v>0.3298123887575824</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>105547</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>86343</v>
+        <v>88952</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>124749</v>
+        <v>125294</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1627668382920799</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1331520319656468</v>
+        <v>0.137174442849502</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1923788476107142</v>
+        <v>0.1932192127878166</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>162</v>
@@ -2936,19 +2936,19 @@
         <v>180057</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>154772</v>
+        <v>157202</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>206184</v>
+        <v>207236</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1976294563001725</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1698776831068246</v>
+        <v>0.1725447541938142</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2263062755860043</v>
+        <v>0.2274610480465093</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>273</v>
@@ -2957,19 +2957,19 @@
         <v>285604</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>257751</v>
+        <v>258074</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>320083</v>
+        <v>317785</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1831335659564234</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1652739066561075</v>
+        <v>0.1654809084438611</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2052423087296353</v>
+        <v>0.2037689791459278</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>153327</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>133283</v>
+        <v>133320</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>175260</v>
+        <v>173639</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2364492422138896</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2055393742757046</v>
+        <v>0.2055963250885718</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2702722983218713</v>
+        <v>0.2677718816355635</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>202</v>
@@ -3007,19 +3007,19 @@
         <v>231820</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>202086</v>
+        <v>205637</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>258239</v>
+        <v>261027</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2544448940003934</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2218088311911337</v>
+        <v>0.2257058137028772</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2834419584430116</v>
+        <v>0.2865018525660389</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>357</v>
@@ -3028,19 +3028,19 @@
         <v>385147</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>351951</v>
+        <v>350113</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>422796</v>
+        <v>419124</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2469622948765726</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2256764974051016</v>
+        <v>0.2244978880094083</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2711036307568987</v>
+        <v>0.2687488405823216</v>
       </c>
     </row>
     <row r="9">
@@ -3132,19 +3132,19 @@
         <v>186096</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>162208</v>
+        <v>160849</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>216330</v>
+        <v>213568</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1192014017116863</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1039002909772934</v>
+        <v>0.1030296326594847</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.138566872573307</v>
+        <v>0.1367982155163992</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>152</v>
@@ -3153,19 +3153,19 @@
         <v>154716</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>133559</v>
+        <v>133857</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>179906</v>
+        <v>180109</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09413041417132718</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08125799001775666</v>
+        <v>0.08143949859631519</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1094558717199388</v>
+        <v>0.1095797237312549</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>328</v>
@@ -3174,19 +3174,19 @@
         <v>340813</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>303797</v>
+        <v>308008</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>377924</v>
+        <v>377519</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1063434365266919</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0947934062493361</v>
+        <v>0.09610738497046038</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.117923269350538</v>
+        <v>0.1177970432613191</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>464599</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>427506</v>
+        <v>427456</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>501953</v>
+        <v>500137</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2975919732590504</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2738326661522553</v>
+        <v>0.273800889541965</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3215189226133466</v>
+        <v>0.3203558980910288</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>466</v>
@@ -3224,19 +3224,19 @@
         <v>482766</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>445232</v>
+        <v>446148</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>518257</v>
+        <v>519223</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.29371826657759</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2708824997865749</v>
+        <v>0.2714396429342528</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3153112568803321</v>
+        <v>0.3158989445016107</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>912</v>
@@ -3245,19 +3245,19 @@
         <v>947364</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>899010</v>
+        <v>896797</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>997194</v>
+        <v>999141</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.295605295009264</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2805173049027926</v>
+        <v>0.2798266563478305</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3111534740743745</v>
+        <v>0.3117611479147449</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>478111</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>444029</v>
+        <v>439236</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>516618</v>
+        <v>516434</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3062474942071507</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2844167617438028</v>
+        <v>0.2813465067120107</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3309126156248429</v>
+        <v>0.3307942539196366</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>476</v>
@@ -3295,19 +3295,19 @@
         <v>501498</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>462043</v>
+        <v>460968</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>538362</v>
+        <v>537069</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3051153015496535</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2811100786014079</v>
+        <v>0.2804561764016344</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3275432637386079</v>
+        <v>0.326756879537148</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>926</v>
@@ -3316,19 +3316,19 @@
         <v>979610</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>930768</v>
+        <v>927691</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1031843</v>
+        <v>1031427</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3056668352383179</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2904268805391467</v>
+        <v>0.2894664786508986</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3219651074169554</v>
+        <v>0.3218353988731422</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>202748</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>175934</v>
+        <v>174278</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>228989</v>
+        <v>233001</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1298672424377978</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1126922789326632</v>
+        <v>0.1116311864992191</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1466755485922894</v>
+        <v>0.1492453225035676</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>186</v>
@@ -3366,19 +3366,19 @@
         <v>198255</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>173198</v>
+        <v>172241</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>225114</v>
+        <v>224587</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1206199435818557</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1053748795659738</v>
+        <v>0.1047927782526324</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1369610881546848</v>
+        <v>0.1366402214485081</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>372</v>
@@ -3387,19 +3387,19 @@
         <v>401003</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>362980</v>
+        <v>362494</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>440900</v>
+        <v>438166</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1251246511635795</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1132604853921192</v>
+        <v>0.1131086093147979</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1375736184638029</v>
+        <v>0.1367204617627219</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>229639</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>201181</v>
+        <v>201672</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>259940</v>
+        <v>260203</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1470918883843148</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1288638778793861</v>
+        <v>0.129178342982398</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.166500589460991</v>
+        <v>0.1666693662949819</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>286</v>
@@ -3437,19 +3437,19 @@
         <v>306400</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>275014</v>
+        <v>276840</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>341825</v>
+        <v>340702</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1864160741195736</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1673205271477327</v>
+        <v>0.1684313079607259</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2079689434468981</v>
+        <v>0.2072856369817571</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>502</v>
@@ -3458,19 +3458,19 @@
         <v>536039</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>498693</v>
+        <v>495395</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>583420</v>
+        <v>578562</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1672597820621467</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1556067041020938</v>
+        <v>0.1545777755314149</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1820440837186966</v>
+        <v>0.1805281532949936</v>
       </c>
     </row>
     <row r="15">
@@ -3562,19 +3562,19 @@
         <v>55128</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>40515</v>
+        <v>41833</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>72349</v>
+        <v>70918</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1286112026257186</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09451872268829446</v>
+        <v>0.09759468675456856</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1687861836697755</v>
+        <v>0.1654495242945868</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>33</v>
@@ -3583,19 +3583,19 @@
         <v>34156</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23706</v>
+        <v>24329</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45872</v>
+        <v>49117</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07645647370069607</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05306546334680988</v>
+        <v>0.05445976509215993</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1026810780287602</v>
+        <v>0.109944402924585</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>82</v>
@@ -3604,19 +3604,19 @@
         <v>89284</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>72574</v>
+        <v>72540</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>110247</v>
+        <v>111323</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1019946596217231</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08290619524587405</v>
+        <v>0.08286639258486819</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1259423930562501</v>
+        <v>0.1271706878267437</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>131154</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>112046</v>
+        <v>110628</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>152317</v>
+        <v>151670</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3059762406348421</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2613983147808023</v>
+        <v>0.2580911780585776</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3553500786043695</v>
+        <v>0.3538404407751271</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>132</v>
@@ -3654,19 +3654,19 @@
         <v>134568</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>115715</v>
+        <v>116036</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>155379</v>
+        <v>156074</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3012230792968881</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2590218791917169</v>
+        <v>0.2597385235826755</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3478053911924029</v>
+        <v>0.3493610652335312</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>251</v>
@@ -3675,19 +3675,19 @@
         <v>265722</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>237443</v>
+        <v>235969</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>296603</v>
+        <v>291165</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3035505215147513</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2712452682547016</v>
+        <v>0.2695618958369807</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3388272964043193</v>
+        <v>0.3326154030174178</v>
       </c>
     </row>
     <row r="18">
@@ -3704,19 +3704,19 @@
         <v>115675</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>97462</v>
+        <v>96794</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>134971</v>
+        <v>134486</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2698640382025052</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2273740604873242</v>
+        <v>0.2258167936811556</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3148825155750593</v>
+        <v>0.3137500713189888</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>137</v>
@@ -3725,19 +3725,19 @@
         <v>145796</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>125735</v>
+        <v>123823</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>167602</v>
+        <v>167429</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3263545847708404</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2814497145373966</v>
+        <v>0.2771710125660505</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3751657618464145</v>
+        <v>0.3747803103355305</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>246</v>
@@ -3746,19 +3746,19 @@
         <v>261470</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>232576</v>
+        <v>233691</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>288565</v>
+        <v>289595</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2986933139565188</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.265685363483306</v>
+        <v>0.2669590291513697</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3296453006387881</v>
+        <v>0.3308217369286022</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>50103</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>37195</v>
+        <v>36949</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>65080</v>
+        <v>65443</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1168874830059168</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08677350170264657</v>
+        <v>0.086201492492243</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.151828624505329</v>
+        <v>0.1526762491339448</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>58</v>
@@ -3796,19 +3796,19 @@
         <v>63280</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48950</v>
+        <v>49598</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>80576</v>
+        <v>81430</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1416486869884384</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1095704913685445</v>
+        <v>0.1110213942454683</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1803654061805444</v>
+        <v>0.1822766677807893</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>103</v>
@@ -3817,19 +3817,19 @@
         <v>113383</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>92107</v>
+        <v>93974</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>134875</v>
+        <v>135912</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.129524067726335</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1052195217259188</v>
+        <v>0.1073521633534501</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1540757949949678</v>
+        <v>0.1552610870616019</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>76581</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>61065</v>
+        <v>61164</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>94686</v>
+        <v>95821</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1786610355310174</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1424613670052398</v>
+        <v>0.1426931321083504</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2208992761125767</v>
+        <v>0.2235472148763639</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>66</v>
@@ -3867,19 +3867,19 @@
         <v>68940</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>52574</v>
+        <v>54451</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>85732</v>
+        <v>87998</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.154317175243137</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1176847744747289</v>
+        <v>0.1218843103796551</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1919048417291321</v>
+        <v>0.1969779148896498</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>135</v>
@@ -3888,19 +3888,19 @@
         <v>145521</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>120857</v>
+        <v>124942</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>167379</v>
+        <v>172382</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1662374371806719</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1380617569217172</v>
+        <v>0.1427294072017551</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1912069517665576</v>
+        <v>0.196922509675866</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>307094</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>275187</v>
+        <v>275220</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>341979</v>
+        <v>338715</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1163988318946367</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.104305212154424</v>
+        <v>0.1043176678477857</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1296214125466913</v>
+        <v>0.1283843809877569</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>226</v>
@@ -4013,19 +4013,19 @@
         <v>233144</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>205552</v>
+        <v>202954</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>263643</v>
+        <v>264686</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07767707467519976</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06848419741919004</v>
+        <v>0.06761853875254664</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08783824851350139</v>
+        <v>0.08818578797378597</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>515</v>
@@ -4034,19 +4034,19 @@
         <v>540238</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>494756</v>
+        <v>495348</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>592904</v>
+        <v>584264</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09579122290546135</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08772665937899576</v>
+        <v>0.08783168407095784</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1051295625379579</v>
+        <v>0.1035976281442199</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>721921</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>673404</v>
+        <v>672160</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>770272</v>
+        <v>768495</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2736321446565848</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2552425130869309</v>
+        <v>0.2547711057165106</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.291958789074249</v>
+        <v>0.2912851115267347</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>752</v>
@@ -4084,19 +4084,19 @@
         <v>790842</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>742407</v>
+        <v>741328</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>840820</v>
+        <v>841489</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2634860042753178</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2473489900466999</v>
+        <v>0.2469892700354334</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2801371469841692</v>
+        <v>0.2803600152921595</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1441</v>
@@ -4105,19 +4105,19 @@
         <v>1512763</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1449394</v>
+        <v>1447362</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1584459</v>
+        <v>1585118</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2682323976218227</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2569962933031844</v>
+        <v>0.2566360238285231</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2809449668146589</v>
+        <v>0.2810619596821251</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>791330</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>745973</v>
+        <v>739447</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>840492</v>
+        <v>837089</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2999405592294954</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2827486948440633</v>
+        <v>0.2802751013825704</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3185743915621506</v>
+        <v>0.3172844974658779</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>866</v>
@@ -4155,19 +4155,19 @@
         <v>928719</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>873853</v>
+        <v>876099</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>980329</v>
+        <v>977155</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3094227314398273</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2911429677930151</v>
+        <v>0.2918910743881546</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3266177414383981</v>
+        <v>0.325560354859093</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1629</v>
@@ -4176,19 +4176,19 @@
         <v>1720049</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1643027</v>
+        <v>1650445</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1786602</v>
+        <v>1790724</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3049869442933545</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.291329876158509</v>
+        <v>0.2926452242534802</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3167875501535302</v>
+        <v>0.3175185380576865</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>358398</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>323016</v>
+        <v>324359</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>395271</v>
+        <v>392099</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1358447181405654</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1224339846022003</v>
+        <v>0.1229429914193662</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1498208420772636</v>
+        <v>0.1486186835423176</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>406</v>
@@ -4226,19 +4226,19 @@
         <v>441592</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>407571</v>
+        <v>401248</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>484796</v>
+        <v>481149</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1471258414788936</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1357910766165366</v>
+        <v>0.1336845669968181</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1615203814482591</v>
+        <v>0.1603051201103238</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>748</v>
@@ -4247,19 +4247,19 @@
         <v>799990</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>749602</v>
+        <v>748276</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>855088</v>
+        <v>857043</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.141848499874888</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1329140431125415</v>
+        <v>0.1326790724005124</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1516181551839499</v>
+        <v>0.1519647876383801</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>459547</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>421682</v>
+        <v>422593</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>502115</v>
+        <v>500260</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1741837460787178</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1598315212007447</v>
+        <v>0.1601768202243974</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1903184280565395</v>
+        <v>0.1896152774075864</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>554</v>
@@ -4297,19 +4297,19 @@
         <v>607160</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>561406</v>
+        <v>559999</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>652082</v>
+        <v>655553</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2022883481307615</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1870445912089865</v>
+        <v>0.1865755651757518</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2172553137348836</v>
+        <v>0.2184116193182402</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>994</v>
@@ -4318,19 +4318,19 @@
         <v>1066707</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1005041</v>
+        <v>1003421</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1124591</v>
+        <v>1125150</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1891409353044735</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1782068037124924</v>
+        <v>0.1779195453624752</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1994045402532508</v>
+        <v>0.1995036910866166</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>38861</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27432</v>
+        <v>27711</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52433</v>
+        <v>53216</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07823482610104682</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0552249721126982</v>
+        <v>0.0557862037769037</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1055575001690233</v>
+        <v>0.1071336375874702</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -4682,19 +4682,19 @@
         <v>30906</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23283</v>
+        <v>23402</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41641</v>
+        <v>41237</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04056389198331747</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03055856879168903</v>
+        <v>0.03071458103860441</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0546531919422384</v>
+        <v>0.0541232817440032</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>87</v>
@@ -4703,19 +4703,19 @@
         <v>69767</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56371</v>
+        <v>55916</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>87364</v>
+        <v>88719</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05543092145276405</v>
+        <v>0.05543092145276406</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04478708381879895</v>
+        <v>0.04442581284434542</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06941201081219037</v>
+        <v>0.07048857376073069</v>
       </c>
     </row>
     <row r="5">
@@ -4732,19 +4732,19 @@
         <v>102889</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>84811</v>
+        <v>85287</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>121202</v>
+        <v>119441</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2071341133342844</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1707397817642103</v>
+        <v>0.1716975347533344</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2440012080941024</v>
+        <v>0.2404560358235833</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>230</v>
@@ -4753,19 +4753,19 @@
         <v>137831</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>121535</v>
+        <v>121565</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>156659</v>
+        <v>156054</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1809017498021917</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1595143058349861</v>
+        <v>0.1595529672573886</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2056144076728366</v>
+        <v>0.2048193257612813</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>346</v>
@@ -4774,19 +4774,19 @@
         <v>240720</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>216233</v>
+        <v>216701</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>262859</v>
+        <v>265171</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1912544880822151</v>
+        <v>0.1912544880822152</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1717993508325246</v>
+        <v>0.1721710566416282</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2088443036030147</v>
+        <v>0.2106808691273279</v>
       </c>
     </row>
     <row r="6">
@@ -4803,19 +4803,19 @@
         <v>126043</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>107610</v>
+        <v>110050</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>144799</v>
+        <v>145675</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2537461645380377</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2166376938535423</v>
+        <v>0.2215507474759398</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2915057768464759</v>
+        <v>0.293269852046959</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>398</v>
@@ -4824,19 +4824,19 @@
         <v>230457</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>211191</v>
+        <v>211618</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>249571</v>
+        <v>250465</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.302472759448937</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2771872242567733</v>
+        <v>0.2777466857089156</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.327560752498147</v>
+        <v>0.328733553437854</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>556</v>
@@ -4845,19 +4845,19 @@
         <v>356499</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>329675</v>
+        <v>329443</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>383235</v>
+        <v>381726</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2832425561250117</v>
+        <v>0.2832425561250118</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2619307556495146</v>
+        <v>0.2617461700473362</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3044840303842808</v>
+        <v>0.303285345212118</v>
       </c>
     </row>
     <row r="7">
@@ -4874,19 +4874,19 @@
         <v>107156</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>91226</v>
+        <v>90891</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>124600</v>
+        <v>123730</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2157251251786032</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1836539486126135</v>
+        <v>0.1829794736609589</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2508425928493967</v>
+        <v>0.2490906443297095</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>296</v>
@@ -4895,19 +4895,19 @@
         <v>159613</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>142678</v>
+        <v>143336</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>176702</v>
+        <v>177076</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2094908921542375</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.187264219763858</v>
+        <v>0.1881269302452452</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2319195061459252</v>
+        <v>0.2324107183482567</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>438</v>
@@ -4916,19 +4916,19 @@
         <v>266769</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>244382</v>
+        <v>244230</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>290434</v>
+        <v>292688</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2119512645411548</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1941643395439393</v>
+        <v>0.1940433351822127</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2307531262943904</v>
+        <v>0.2325436779219152</v>
       </c>
     </row>
     <row r="8">
@@ -4945,19 +4945,19 @@
         <v>121777</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>104680</v>
+        <v>103845</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>139728</v>
+        <v>139847</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.245159770848028</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2107385988628996</v>
+        <v>0.2090584531957541</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2812980562333658</v>
+        <v>0.2815374671972944</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>368</v>
@@ -4966,19 +4966,19 @@
         <v>203103</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>184089</v>
+        <v>184789</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>222107</v>
+        <v>223432</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2665707066113163</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2416159246929904</v>
+        <v>0.2425342480779489</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2915131780585472</v>
+        <v>0.293252954012499</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>532</v>
@@ -4987,19 +4987,19 @@
         <v>324880</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>300299</v>
+        <v>300938</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>349248</v>
+        <v>348788</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2581207697988542</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2385907862110055</v>
+        <v>0.2390983391612954</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2774814503483947</v>
+        <v>0.2771162028975672</v>
       </c>
     </row>
     <row r="9">
@@ -5091,19 +5091,19 @@
         <v>165416</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>139486</v>
+        <v>139580</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>195318</v>
+        <v>195711</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09769968898570085</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08238431832222055</v>
+        <v>0.08243980546454047</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1153605153942758</v>
+        <v>0.1155925261625273</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>197</v>
@@ -5112,19 +5112,19 @@
         <v>155052</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>132418</v>
+        <v>135171</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>176670</v>
+        <v>177541</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.08636930992659347</v>
+        <v>0.0863693099265935</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07376152447628467</v>
+        <v>0.07529512940636504</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09841160859730905</v>
+        <v>0.09889629213566675</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>335</v>
@@ -5133,19 +5133,19 @@
         <v>320468</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>287333</v>
+        <v>285278</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>357066</v>
+        <v>360098</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09186867214427269</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08236977193917926</v>
+        <v>0.08178068329360376</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1023601263258399</v>
+        <v>0.1032292408682534</v>
       </c>
     </row>
     <row r="11">
@@ -5162,19 +5162,19 @@
         <v>476366</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>433113</v>
+        <v>435462</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>518990</v>
+        <v>518266</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2813551535167067</v>
+        <v>0.2813551535167066</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2558088769924289</v>
+        <v>0.257196548575672</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3065304816077009</v>
+        <v>0.3061030122635786</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>641</v>
@@ -5183,19 +5183,19 @@
         <v>474917</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>443485</v>
+        <v>440514</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>510399</v>
+        <v>508971</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2645454875301452</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2470366666113031</v>
+        <v>0.2453817212188476</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2843103734895407</v>
+        <v>0.2835146635424431</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1066</v>
@@ -5204,19 +5204,19 @@
         <v>951283</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>897053</v>
+        <v>901687</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1008974</v>
+        <v>1006594</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.272704300358565</v>
+        <v>0.2727043003585649</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2571584054806944</v>
+        <v>0.2584868371511063</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2892426728106851</v>
+        <v>0.2885603957523342</v>
       </c>
     </row>
     <row r="12">
@@ -5233,19 +5233,19 @@
         <v>500936</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>459330</v>
+        <v>459092</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>542337</v>
+        <v>545152</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2958671303550424</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2712932733928442</v>
+        <v>0.2711526833968815</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3203196287269006</v>
+        <v>0.3219823131848589</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>760</v>
@@ -5254,19 +5254,19 @@
         <v>526054</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>492971</v>
+        <v>491839</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>559593</v>
+        <v>560929</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2930303899213849</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.274602004347329</v>
+        <v>0.2739713769313545</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3117130554361372</v>
+        <v>0.3124572353316854</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1268</v>
@@ -5275,19 +5275,19 @@
         <v>1026990</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>978297</v>
+        <v>971403</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1076175</v>
+        <v>1079398</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2944072426357413</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2804485015257959</v>
+        <v>0.2784721137649114</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3085071457934215</v>
+        <v>0.3094311592176085</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>271365</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>240344</v>
+        <v>241407</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>304473</v>
+        <v>305638</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1602759857521942</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1419538745041772</v>
+        <v>0.142581673507349</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1798306646801252</v>
+        <v>0.1805186181413006</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>404</v>
@@ -5325,19 +5325,19 @@
         <v>261543</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>236656</v>
+        <v>236869</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>287294</v>
+        <v>287168</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1456887641978485</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1318258996755771</v>
+        <v>0.1319443195608882</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.160032936875765</v>
+        <v>0.1599625552341316</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>692</v>
@@ -5346,19 +5346,19 @@
         <v>532908</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>496512</v>
+        <v>492631</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>574817</v>
+        <v>575490</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1527688816995135</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1423350150150584</v>
+        <v>0.1412226479855345</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.164782932240424</v>
+        <v>0.1649759126211594</v>
       </c>
     </row>
     <row r="14">
@@ -5375,19 +5375,19 @@
         <v>279028</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>250785</v>
+        <v>248762</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>308389</v>
+        <v>314258</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1648020413903558</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1481207113056688</v>
+        <v>0.1469262400019578</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1821434545885778</v>
+        <v>0.1856098796908382</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>553</v>
@@ -5396,19 +5396,19 @@
         <v>377653</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>348559</v>
+        <v>345996</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>408978</v>
+        <v>406155</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2103660484240279</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1941596271220089</v>
+        <v>0.1927320861765487</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2278149740695593</v>
+        <v>0.2262428344286447</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>845</v>
@@ -5417,19 +5417,19 @@
         <v>656681</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>611336</v>
+        <v>616787</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>698629</v>
+        <v>705441</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1882509031619075</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1752517761808001</v>
+        <v>0.176814465141853</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2002759906512734</v>
+        <v>0.2022288056338458</v>
       </c>
     </row>
     <row r="15">
@@ -5521,19 +5521,19 @@
         <v>37955</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26072</v>
+        <v>26280</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53654</v>
+        <v>51954</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.06401432316717669</v>
+        <v>0.06401432316717666</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04397284793276746</v>
+        <v>0.04432276541264455</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09049141594212033</v>
+        <v>0.08762377087162493</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>50</v>
@@ -5542,19 +5542,19 @@
         <v>40686</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30405</v>
+        <v>30332</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53474</v>
+        <v>53289</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06210648507089283</v>
+        <v>0.06210648507089284</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04641283899892581</v>
+        <v>0.04630160363705851</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08162724600888471</v>
+        <v>0.08134471269054749</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>83</v>
@@ -5563,19 +5563,19 @@
         <v>78641</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62847</v>
+        <v>62185</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>97518</v>
+        <v>96498</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06301288094533865</v>
+        <v>0.06301288094533863</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05035759437347895</v>
+        <v>0.04982725977135431</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07813813911365743</v>
+        <v>0.07732123641195565</v>
       </c>
     </row>
     <row r="17">
@@ -5592,19 +5592,19 @@
         <v>156918</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>133403</v>
+        <v>134159</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>178481</v>
+        <v>182841</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2646531593879285</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.224993006811475</v>
+        <v>0.22626893728558</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3010198567290346</v>
+        <v>0.3083733973191047</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>210</v>
@@ -5613,19 +5613,19 @@
         <v>156940</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>139544</v>
+        <v>136165</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>178299</v>
+        <v>174624</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2395687335759868</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2130139734049962</v>
+        <v>0.2078553894857108</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2721727098052316</v>
+        <v>0.2665626056943456</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>351</v>
@@ -5634,19 +5634,19 @@
         <v>313858</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>283055</v>
+        <v>285018</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>346856</v>
+        <v>343362</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2514861075465941</v>
+        <v>0.251486107546594</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2268039385453119</v>
+        <v>0.2283772059308596</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2779264683268228</v>
+        <v>0.2751264873123763</v>
       </c>
     </row>
     <row r="18">
@@ -5663,19 +5663,19 @@
         <v>194951</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>171310</v>
+        <v>172526</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>219658</v>
+        <v>221228</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3287983389633059</v>
+        <v>0.3287983389633058</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2889260020190258</v>
+        <v>0.2909773180082791</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3704675078366723</v>
+        <v>0.3731165848681533</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>295</v>
@@ -5684,19 +5684,19 @@
         <v>199824</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>181181</v>
+        <v>180576</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>220519</v>
+        <v>222751</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3050306432695238</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2765716181762475</v>
+        <v>0.2756490058945451</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3366212016065249</v>
+        <v>0.3400283990384516</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>490</v>
@@ -5705,19 +5705,19 @@
         <v>394775</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>358282</v>
+        <v>362760</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>426091</v>
+        <v>425360</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.3163224511875488</v>
+        <v>0.3163224511875487</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2870817981854437</v>
+        <v>0.290669963071833</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3414147167684962</v>
+        <v>0.34082949991209</v>
       </c>
     </row>
     <row r="19">
@@ -5734,19 +5734,19 @@
         <v>96074</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>78835</v>
+        <v>78995</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>117600</v>
+        <v>115226</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1620353791780478</v>
+        <v>0.1620353791780477</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1329612507205235</v>
+        <v>0.1332312531830098</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1983410724283848</v>
+        <v>0.194336303718412</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>163</v>
@@ -5755,19 +5755,19 @@
         <v>111526</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>95493</v>
+        <v>95609</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>129191</v>
+        <v>129322</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1702444567361378</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.145769632050136</v>
+        <v>0.145946902558676</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1972091250454386</v>
+        <v>0.1974101961264964</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>266</v>
@@ -5776,19 +5776,19 @@
         <v>207600</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>181978</v>
+        <v>185710</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>234865</v>
+        <v>233078</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1663444014609278</v>
+        <v>0.1663444014609277</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1458141499915734</v>
+        <v>0.1488045580691283</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1881907396621432</v>
+        <v>0.1867589547848086</v>
       </c>
     </row>
     <row r="20">
@@ -5805,19 +5805,19 @@
         <v>107021</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>88996</v>
+        <v>90529</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>127704</v>
+        <v>127867</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1804987993035413</v>
+        <v>0.1804987993035412</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1500975804470952</v>
+        <v>0.1526829184594124</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2153809272011713</v>
+        <v>0.215655741649864</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>202</v>
@@ -5826,19 +5826,19 @@
         <v>146119</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>128056</v>
+        <v>127484</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>164919</v>
+        <v>165796</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2230496813474587</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.195476884821515</v>
+        <v>0.1946039002400168</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2517476468837547</v>
+        <v>0.2530862181344606</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>318</v>
@@ -5847,19 +5847,19 @@
         <v>253140</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>228518</v>
+        <v>226037</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>284010</v>
+        <v>278508</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2028341588595908</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1831055616257196</v>
+        <v>0.1811169992273547</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2275695774893838</v>
+        <v>0.2231608965796852</v>
       </c>
     </row>
     <row r="21">
@@ -5951,19 +5951,19 @@
         <v>242233</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>210873</v>
+        <v>206595</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>274199</v>
+        <v>277193</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08704786091694663</v>
+        <v>0.08704786091694661</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07577852937710908</v>
+        <v>0.07424122058837429</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09853495449526745</v>
+        <v>0.09961087779405442</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>295</v>
@@ -5972,19 +5972,19 @@
         <v>226643</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>200734</v>
+        <v>203219</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>254338</v>
+        <v>256981</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07055658060957867</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06249068604168064</v>
+        <v>0.06326422972985728</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07917812979909009</v>
+        <v>0.08000104891173697</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>505</v>
@@ -5993,19 +5993,19 @@
         <v>468877</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>432414</v>
+        <v>426457</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>514156</v>
+        <v>515034</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07821152553879988</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07212928558186653</v>
+        <v>0.07113568282136436</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08576441994219207</v>
+        <v>0.0859108931040293</v>
       </c>
     </row>
     <row r="23">
@@ -6022,19 +6022,19 @@
         <v>736173</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>686278</v>
+        <v>691571</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>784646</v>
+        <v>790528</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2645478869328026</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2466180115482962</v>
+        <v>0.2485200461517249</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2819667777944945</v>
+        <v>0.2840806855071195</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1081</v>
@@ -6043,19 +6043,19 @@
         <v>769688</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>728256</v>
+        <v>727277</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>812330</v>
+        <v>813125</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2396122694954553</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2267140064704119</v>
+        <v>0.2264093998383114</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.252887232225255</v>
+        <v>0.2531346278694392</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1763</v>
@@ -6064,19 +6064,19 @@
         <v>1505861</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1441513</v>
+        <v>1436290</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1576217</v>
+        <v>1572951</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2511869183220682</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2404532331317342</v>
+        <v>0.2395821547295213</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2629227246304529</v>
+        <v>0.2623779279984881</v>
       </c>
     </row>
     <row r="24">
@@ -6093,19 +6093,19 @@
         <v>821930</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>763748</v>
+        <v>773871</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>871402</v>
+        <v>872430</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2953650929905228</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2744570713006931</v>
+        <v>0.2780950031411606</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3131431362885916</v>
+        <v>0.3135125972841337</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1453</v>
@@ -6114,19 +6114,19 @@
         <v>956334</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>909562</v>
+        <v>909805</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>998576</v>
+        <v>998350</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2977173411278858</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2831565971480657</v>
+        <v>0.2832321833681152</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3108676364740122</v>
+        <v>0.3107971610282353</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2314</v>
@@ -6135,19 +6135,19 @@
         <v>1778264</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1705667</v>
+        <v>1712532</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1845378</v>
+        <v>1850928</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2966254713872853</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.284515815692059</v>
+        <v>0.2856608793498634</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.307820412059335</v>
+        <v>0.3087462032447579</v>
       </c>
     </row>
     <row r="25">
@@ -6164,19 +6164,19 @@
         <v>474596</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>436405</v>
+        <v>434169</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>518954</v>
+        <v>516153</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1705486264007734</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1568247340543816</v>
+        <v>0.1560209579738783</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1864889492758837</v>
+        <v>0.1854825326037169</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>863</v>
@@ -6185,19 +6185,19 @@
         <v>532683</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>497696</v>
+        <v>499033</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>566105</v>
+        <v>565479</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1658298696921678</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1549383339133329</v>
+        <v>0.1553544579964624</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1762345782135953</v>
+        <v>0.1760398976935131</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1396</v>
@@ -6206,19 +6206,19 @@
         <v>1007278</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>955329</v>
+        <v>954366</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1063519</v>
+        <v>1064527</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1680202286009682</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1593547810674969</v>
+        <v>0.1591941292731937</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1774015229795869</v>
+        <v>0.1775696754028145</v>
       </c>
     </row>
     <row r="26">
@@ -6235,19 +6235,19 @@
         <v>507827</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>470622</v>
+        <v>470088</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>550161</v>
+        <v>548748</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1824905327589546</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1691207791778204</v>
+        <v>0.1689286972037426</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1977034872382692</v>
+        <v>0.1971957373427522</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1123</v>
@@ -6256,19 +6256,19 @@
         <v>726874</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>686920</v>
+        <v>688786</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>769912</v>
+        <v>772575</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2262839390749124</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2138455498684187</v>
+        <v>0.2144266991192843</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2396820656883553</v>
+        <v>0.240511114095679</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1695</v>
@@ -6277,19 +6277,19 @@
         <v>1234701</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1178099</v>
+        <v>1177633</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1291357</v>
+        <v>1293032</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2059558561508784</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1965142618611517</v>
+        <v>0.1964364807603801</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2154063048795889</v>
+        <v>0.2156857563048253</v>
       </c>
     </row>
     <row r="27">
